--- a/DashBoard/DASHBOARD - IPIRANGA.xlsx
+++ b/DashBoard/DASHBOARD - IPIRANGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sansão\Desktop\Ipiranga\Ipiranga-Tech\DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA8567-5F11-4091-9B55-0CBD1332B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A50AA-B816-44AF-9DF8-690B4BB50C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="740" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="549">
   <si>
     <t>ID</t>
   </si>
@@ -1946,7 +1946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2006,12 +2006,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2263,7 +2488,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="8" xr9:uid="{A32F6F73-7A05-4AB4-B6B6-316C6FE78DA1}">
-      <tableStyleElement type="wholeTable" dxfId="60"/>
+      <tableStyleElement type="wholeTable" dxfId="92"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2481,16 +2706,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3780</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4350</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2580</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3240</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,16 +3092,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,16 +3718,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3880,7 +4105,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -4033,10 +4258,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4614,28 +4839,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>112</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,9 +4897,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59128083396018483"/>
-          <c:y val="5.8431799262009629E-2"/>
-          <c:w val="0.38965087000977439"/>
+          <c:x val="0.58553129726030839"/>
+          <c:y val="5.8431672313261504E-2"/>
+          <c:w val="0.38965096440739239"/>
           <c:h val="0.88313640147598071"/>
         </c:manualLayout>
       </c:layout>
@@ -4849,10 +5074,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4864,13 +5089,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,10 +5186,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4976,13 +5201,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,10 +5298,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5088,13 +5313,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5185,10 +5410,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5200,13 +5425,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5635,19 +5860,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5860,10 +6085,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5875,13 +6100,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,10 +6197,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5987,13 +6212,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6084,10 +6309,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6099,13 +6324,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6196,10 +6421,10 @@
                   <c:v>1 vez por semana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 a 3 vezes por semana</c:v>
+                  <c:v>Mais que 3 vezes na semana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mais que 3 vezes na semana</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6211,13 +6436,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6439,10 +6664,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16159963088692633"/>
-          <c:y val="0.11040348093383714"/>
-          <c:w val="0.46010370916726923"/>
-          <c:h val="0.85310077957030317"/>
+          <c:x val="0.16159971010290308"/>
+          <c:y val="0.19020136314482336"/>
+          <c:w val="0.42596342486466182"/>
+          <c:h val="0.78601999411354251"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -6656,19 +6881,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.3333333333333337E-2</c:v>
+                  <c:v>6.3333333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>0.17333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.6666666666666665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.10333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40666666666666668</c:v>
+                  <c:v>0.39666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.17333333333333334</c:v>
@@ -6925,16 +7150,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7055,17 +7280,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7187,16 +7409,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7340,16 +7562,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7792,19 +8014,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.18326693227091634</c:v>
+                  <c:v>0.17073170731707318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14741035856573706</c:v>
+                  <c:v>0.17073170731707318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19521912350597609</c:v>
+                  <c:v>0.17073170731707318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23107569721115537</c:v>
+                  <c:v>0.1951219512195122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24302788844621515</c:v>
+                  <c:v>0.29268292682926828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14086,19 +14308,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100629</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180468</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518982</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>92693</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>173184</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264516</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>165713</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="GÊNERO">
@@ -14121,7 +14343,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14131,8 +14353,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10338323" y="3443621"/>
-              <a:ext cx="1838794" cy="1247775"/>
+              <a:off x="6308688" y="12387409"/>
+              <a:ext cx="1874652" cy="1300069"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14385,12 +14607,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8718009" y="1453895"/>
-          <a:ext cx="5574305" cy="228784"/>
+          <a:off x="8726682" y="1481591"/>
+          <a:ext cx="5579881" cy="232246"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 31626"/>
+            <a:gd name="adj" fmla="val 24957"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -14875,7 +15097,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>418701</xdr:colOff>
+      <xdr:colOff>411975</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>26029</xdr:rowOff>
     </xdr:from>
@@ -14898,12 +15120,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247501" y="1460382"/>
-          <a:ext cx="6382164" cy="228784"/>
+          <a:off x="2242634" y="1488078"/>
+          <a:ext cx="6395704" cy="232246"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 31626"/>
+            <a:gd name="adj" fmla="val 27625"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -15015,13 +15237,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>441433</xdr:colOff>
+      <xdr:colOff>430561</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>22356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199696</xdr:colOff>
+      <xdr:colOff>207537</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>72584</xdr:rowOff>
     </xdr:to>
@@ -15038,8 +15260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2270233" y="4325415"/>
-          <a:ext cx="4025463" cy="229522"/>
+          <a:off x="2261220" y="4408502"/>
+          <a:ext cx="4048512" cy="232984"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15155,15 +15377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>273269</xdr:colOff>
+      <xdr:colOff>260195</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>22424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>15767</xdr:colOff>
+      <xdr:colOff>29307</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>72652</xdr:rowOff>
+      <xdr:rowOff>68856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15178,12 +15400,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6369269" y="4325483"/>
-          <a:ext cx="4009698" cy="229522"/>
+          <a:off x="6362390" y="4408570"/>
+          <a:ext cx="4040649" cy="229188"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 24899"/>
+            <a:gd name="adj" fmla="val 28224"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -15295,7 +15517,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>89338</xdr:colOff>
+      <xdr:colOff>74341</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>19945</xdr:rowOff>
     </xdr:from>
@@ -15318,12 +15540,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10452538" y="4323004"/>
-          <a:ext cx="3841531" cy="235226"/>
+          <a:off x="10448073" y="4406091"/>
+          <a:ext cx="3860245" cy="238688"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 22662"/>
+            <a:gd name="adj" fmla="val 29151"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -15363,7 +15585,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>30976</xdr:colOff>
+      <xdr:colOff>7744</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>142091</xdr:rowOff>
     </xdr:from>
@@ -15386,8 +15608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9207500" y="2000628"/>
-          <a:ext cx="952500" cy="849930"/>
+          <a:off x="9184268" y="2000628"/>
+          <a:ext cx="975732" cy="849930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15864,7 +16086,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>27%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
             <a:solidFill>
@@ -15956,7 +16178,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>33%</a:t>
+            <a:t>37%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
             <a:solidFill>
@@ -16076,8 +16298,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11790090" y="2060153"/>
-          <a:ext cx="571400" cy="382219"/>
+          <a:off x="11795408" y="2035522"/>
+          <a:ext cx="571680" cy="377740"/>
           <a:chOff x="11601943" y="2175491"/>
           <a:chExt cx="579840" cy="369324"/>
         </a:xfrm>
@@ -16954,7 +17176,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>123</a:t>
+            <a:t>0</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1200" b="1">
             <a:solidFill>
@@ -17383,7 +17605,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="76200" y="91440"/>
-          <a:ext cx="2098627" cy="7342706"/>
+          <a:ext cx="2099467" cy="7253138"/>
           <a:chOff x="76200" y="91440"/>
           <a:chExt cx="2092122" cy="7089289"/>
         </a:xfrm>
@@ -17972,15 +18194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>99199</xdr:colOff>
+      <xdr:colOff>99198</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>46839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>290704</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>596281</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>53647</xdr:rowOff>
+      <xdr:rowOff>54207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17995,8 +18217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10462399" y="4435959"/>
-          <a:ext cx="2020305" cy="189688"/>
+          <a:off x="10499259" y="4507327"/>
+          <a:ext cx="2944156" cy="193221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18026,24 +18248,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6900"/>
-              </a:solidFill>
-              <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Recomendaria</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="0" i="0">
+            <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> o APP</a:t>
+            <a:t>Recomendaria o APP </a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1400" b="0" i="0">
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF6900"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abastece-aí</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1300" b="0" i="0">
             <a:solidFill>
               <a:srgbClr val="FF6900"/>
             </a:solidFill>
@@ -18080,8 +18305,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2240731" y="134471"/>
-          <a:ext cx="12101142" cy="1224568"/>
+          <a:off x="2241571" y="134471"/>
+          <a:ext cx="12106739" cy="1208893"/>
           <a:chOff x="2234226" y="134471"/>
           <a:chExt cx="12057776" cy="1178651"/>
         </a:xfrm>
@@ -18461,7 +18686,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>251</a:t>
+              <a:t>41</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="5400" b="1" baseline="0">
               <a:solidFill>
@@ -18820,7 +19045,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>81</a:t>
+              <a:t>12</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -18885,7 +19110,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>65</a:t>
+              <a:t>14</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -18950,7 +19175,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>42</a:t>
+              <a:t>5</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -19015,7 +19240,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>63</a:t>
+              <a:t>10</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -19185,13 +19410,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:colOff>483326</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>35423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>602507</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3793</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -19209,8 +19434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9616440" y="4424543"/>
-          <a:ext cx="739667" cy="208417"/>
+          <a:off x="9627326" y="4476794"/>
+          <a:ext cx="739667" cy="210595"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19261,15 +19486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114428</xdr:colOff>
+      <xdr:colOff>114429</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>40625</xdr:rowOff>
+      <xdr:rowOff>36997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>244495</xdr:colOff>
+      <xdr:colOff>244496</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66162</xdr:rowOff>
+      <xdr:rowOff>62534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19285,8 +19510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13573330" y="4501113"/>
-          <a:ext cx="741836" cy="211390"/>
+          <a:off x="13525629" y="4478368"/>
+          <a:ext cx="739667" cy="210595"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -20174,7 +20399,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>251</a:t>
+              <a:t>41</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="5400" b="1" baseline="0">
               <a:solidFill>
@@ -20464,7 +20689,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>81</a:t>
+              <a:t>12</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -20529,7 +20754,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>65</a:t>
+              <a:t>14</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -20594,7 +20819,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>42</a:t>
+              <a:t>5</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -20659,7 +20884,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>63</a:t>
+              <a:t>10</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -22248,7 +22473,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>328636</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>79466</xdr:rowOff>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -22264,7 +22489,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="65314" y="76200"/>
-          <a:ext cx="2097766" cy="7035303"/>
+          <a:ext cx="2086679" cy="7017657"/>
           <a:chOff x="76200" y="91440"/>
           <a:chExt cx="2092122" cy="7089289"/>
         </a:xfrm>
@@ -22416,8 +22641,8 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="38" name="GÊNERO 3">
@@ -22440,7 +22665,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -22450,8 +22675,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="191461" y="1520939"/>
-                <a:ext cx="1831750" cy="1168727"/>
+                <a:off x="191133" y="1478240"/>
+                <a:ext cx="1826984" cy="1134185"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -22479,8 +22704,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="39" name="REGIÃO 3">
@@ -22494,7 +22719,7 @@
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
               <a:off x="186337" y="2890863"/>
-              <a:ext cx="1837272" cy="1654243"/>
+              <a:ext cx="1837272" cy="1721397"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
@@ -22503,7 +22728,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -22513,8 +22738,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="175451" y="2931732"/>
-                <a:ext cx="1837272" cy="1687399"/>
+                <a:off x="175164" y="2847337"/>
+                <a:ext cx="1832492" cy="1704004"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -22571,8 +22796,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2228984" y="119231"/>
-          <a:ext cx="12095406" cy="1170512"/>
+          <a:off x="2217897" y="119231"/>
+          <a:ext cx="12021490" cy="1178352"/>
           <a:chOff x="2234226" y="134471"/>
           <a:chExt cx="12057776" cy="1178651"/>
         </a:xfrm>
@@ -22952,7 +23177,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>251</a:t>
+              <a:t>41</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="5400" b="1" baseline="0">
               <a:solidFill>
@@ -23311,7 +23536,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>81</a:t>
+              <a:t>12</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -23376,7 +23601,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>65</a:t>
+              <a:t>14</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -23441,7 +23666,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>42</a:t>
+              <a:t>5</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -23506,7 +23731,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>63</a:t>
+              <a:t>10</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="13800" b="1" baseline="0">
               <a:solidFill>
@@ -23748,7 +23973,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>430696</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -23771,12 +23996,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2280557" y="1422400"/>
-          <a:ext cx="5871502" cy="273957"/>
+          <a:off x="2252870" y="1427922"/>
+          <a:ext cx="5894062" cy="275535"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 35060"/>
+            <a:gd name="adj" fmla="val 27044"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -23990,8 +24215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8297636" y="1445986"/>
-          <a:ext cx="6039757" cy="277586"/>
+          <a:off x="8268923" y="1432458"/>
+          <a:ext cx="6017670" cy="273721"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -24033,7 +24258,7 @@
               </a:solidFill>
               <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Porcentagem</a:t>
+            <a:t>Barreiras da Utilização</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1400" baseline="0">
@@ -24042,25 +24267,7 @@
               </a:solidFill>
               <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> de </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6900"/>
-              </a:solidFill>
-              <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Recomendações</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Sassoon Sans Slope Std Medium" panose="020B07030201030A0203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> do APP</a:t>
+            <a:t> do APP abastece-aí</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1400">
             <a:solidFill>
@@ -24151,7 +24358,9 @@
           </a:srgbClr>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -24222,15 +24431,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>355954</xdr:colOff>
+      <xdr:colOff>376620</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72528</xdr:rowOff>
+      <xdr:rowOff>72529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>332988</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50756</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24245,8 +24454,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8308942" y="4161308"/>
-          <a:ext cx="6094717" cy="349936"/>
+          <a:off x="8272707" y="4081312"/>
+          <a:ext cx="6030281" cy="247731"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -24295,15 +24504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>379451</xdr:colOff>
+      <xdr:colOff>401538</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>108415</xdr:rowOff>
+      <xdr:rowOff>58720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>588537</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3232</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24318,8 +24527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8332439" y="4197195"/>
-          <a:ext cx="3267927" cy="263293"/>
+          <a:off x="8297625" y="4067503"/>
+          <a:ext cx="3246042" cy="256019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -37357,25 +37566,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67188147-0F8E-4D89-BBE6-C835D83D2688}" name="Tabela dinâmica40" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Região">
-  <location ref="A28:F35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87BD3EC1-02AB-47FA-B64B-B4175839E2C7}" name="Tabela dinâmica29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Região">
+  <location ref="A19:F25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="19">
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
@@ -37386,7 +37581,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="2"/>
         <item x="0"/>
@@ -37404,19 +37599,8 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -37428,9 +37612,9 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -37442,9 +37626,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -37470,6 +37651,9 @@
       <x/>
     </i>
   </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Pessoas" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -37483,490 +37667,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6A70013-B328-4EE5-9907-7AB8E85B22D9}" name="km/dia" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DETALHE" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="H11:I15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de KM/DIA" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{422B0079-8290-47F9-9F7C-8E8A92FEA151}" name="Posto por Região 1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="5"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="1"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="8"/>
-        <item sd="0" x="2"/>
-        <item x="6"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="3"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de REGIÃO" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBA2F82-752C-4633-BFC5-C8DE9A9C6A76}" name="Conhece app" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE - DASH" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="K35:O42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="20"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="CONHECE O APP" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7C6DE36-0567-4AE1-959C-698F7B204A9A}" name="Principais pontos 1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE MAIN" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="H18:I25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD3BF5BF-574B-4099-8C5E-EE4D13C620AA}" name="Barreiras do App" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DETALHE" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="H40:I44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField dataField="1" showAll="0">
       <items count="3">
@@ -37987,160 +37689,12 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="16"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Clientes" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{188E4A0B-793A-40A1-BEB3-82BE8C2D0F88}" name="RECOMENDARIA O APP" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="RECOMENDAÇÃO - DASH" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="H47:I52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -38214,7 +37768,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="2"/>
@@ -38227,22 +37781,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="29"/>
+    <field x="25"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -38255,21 +37799,13 @@
     <i>
       <x v="3"/>
     </i>
-    <i>
-      <x v="4"/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="RECOMENDARIA" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="BARREIRAS" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea field="29" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -38282,9 +37818,162 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A89D1F-FA35-4435-B373-4C06007D189B}" name="Posto por Gênero 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="GENERO 2">
-  <location ref="A87:E95" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A9F9A73-B142-4B49-A545-04E2C62785EF}" name="Valor utilizado" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Valor gasto no Abastecimento">
+  <location ref="L11:Q16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="DETALHE" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4069B612-FC94-43A9-9A6C-3B9130B8EED0}" name="Posto por Região 3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A42:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -38299,12 +37988,12 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="7">
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -38405,10 +38094,7 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="1"/>
     </i>
@@ -38431,18 +38117,9 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
   </colItems>
   <dataFields count="1">
@@ -38460,303 +38137,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CCC5D76-0CA9-4847-A415-9AA57D44E0B4}" name="Frequência do Abastecimento" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="A11:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="TABLE DASH" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18AB2D07-3F01-4D06-BF2F-56DBBE179856}" name="Não vinculado Região" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE - DASH" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="T35:X42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="20"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="CONHECE O APP" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="3">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{411199C0-53BD-4040-A301-80D96C7D76D6}" name="Utilização do app" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE - DASH" colHeaderCaption="Frequência do Abastecimento">
   <location ref="H35:I38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
@@ -38779,12 +38160,12 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -38877,7 +38258,7 @@
     <dataField name="FREQUENCIA DE UTILIZAÇÃO DE APP" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="34">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -38893,7 +38274,490 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7C6DE36-0567-4AE1-959C-698F7B204A9A}" name="Principais pontos 1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE MAIN" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="H18:I24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Clientes" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DDA945B-60D8-4C56-81D6-A22F2A1C30EE}" name="Posto por Região 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A30:B37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="1"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="8"/>
+        <item sd="0" x="2"/>
+        <item x="6"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item h="1" sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="1">
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="TABLE MAIN" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8E8BEBA-628C-4849-AC24-E9F2B03A8B25}" name="Posto por Genero 3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A97:E103" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="1"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="8"/>
+        <item sd="0" x="2"/>
+        <item x="6"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="TABLE MAIN" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6374135F-DD12-4CAE-B220-9E4121BC7A34}" name="Qualitativas" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="PERGUNTAS QUALITATIVAS" colHeaderCaption="Frequência do Abastecimento">
   <location ref="K1:N2" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
@@ -39407,42 +39271,71 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9ECBB31A-B242-4C9E-985F-41F99C41ECB3}" name="Tabela dinâmica37" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Frequencia de abastecimento">
-  <location ref="R12:T18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="19">
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{188E4A0B-793A-40A1-BEB3-82BE8C2D0F88}" name="RECOMENDARIA O APP" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="RECOMENDAÇÃO - DASH" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="H47:I52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
         <item x="2"/>
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="6">
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="4">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
         <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
         <item x="2"/>
+        <item x="9"/>
         <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -39457,9 +39350,56 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="29"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -39474,24 +39414,21 @@
     <i>
       <x v="3"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i>
+      <x v="4"/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Contagem de MEIO DE LOCOMOÇÃO" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="RECOMENDARIA" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="35">
+      <pivotArea field="29" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -39504,7 +39441,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EFE037D8-3C6B-4438-A64E-986F41BD0F1A}" name="Posto por Genero 1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="GENERO 1">
   <location ref="A75:F85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
@@ -39691,84 +39628,30 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F1D68F-9FEA-4B5A-A578-DBAC49E949A3}" name="Total de veículos" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DETALHE" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="S11:T15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField showAll="0">
-      <items count="3">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D307692-B245-404B-B244-807F3A96D1BD}" name="Tabela dinâmica28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Frequencia de abastecimento">
+  <location ref="A11:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
         <item x="0"/>
+        <item x="3"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
         <item x="1"/>
         <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -39786,7 +39669,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -39799,12 +39682,26 @@
     <i>
       <x v="3"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Total de Veículos" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Pessoas" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -39818,161 +39715,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD3BF5BF-574B-4099-8C5E-EE4D13C620AA}" name="Barreiras do App" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DETALHE" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="H40:I44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="25"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="BARREIRAS" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4069B612-FC94-43A9-9A6C-3B9130B8EED0}" name="Posto por Região 3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A42:E50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A89D1F-FA35-4435-B373-4C06007D189B}" name="Posto por Gênero 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="GENERO 2">
+  <location ref="A87:E95" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -40148,9 +39893,136 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8E8BEBA-628C-4849-AC24-E9F2B03A8B25}" name="Posto por Genero 3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A97:E103" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6A70013-B328-4EE5-9907-7AB8E85B22D9}" name="km/dia" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DETALHE" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="H11:I15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de KM/DIA" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CCC5D76-0CA9-4847-A415-9AA57D44E0B4}" name="Frequência do Abastecimento" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="A11:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -40163,14 +40035,266 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="TABLE DASH" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="36">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F1D68F-9FEA-4B5A-A578-DBAC49E949A3}" name="Total de veículos" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DETALHE" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="S11:T15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
       <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
         <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
         <item x="1"/>
         <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="9"/>
         <item x="0"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total de Veículos" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{422B0079-8290-47F9-9F7C-8E8A92FEA151}" name="Posto por Região 1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A18:B24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -40196,7 +40320,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="11">
         <item sd="0" x="5"/>
         <item sd="0" x="4"/>
@@ -40238,14 +40362,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
         <item x="3"/>
         <item x="2"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -40269,7 +40393,7 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="11"/>
+    <field x="8"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -40285,28 +40409,19 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="8"/>
     </i>
   </rowItems>
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="TABLE MAIN" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Contagem de REGIÃO" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -40321,6 +40436,229 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67188147-0F8E-4D89-BBE6-C835D83D2688}" name="Tabela dinâmica40" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Região">
+  <location ref="A28:F35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9ECBB31A-B242-4C9E-985F-41F99C41ECB3}" name="Tabela dinâmica37" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Frequencia de abastecimento">
+  <location ref="R12:T18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de MEIO DE LOCOMOÇÃO" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5979508A-E201-4136-A11A-36E7D30CB7E6}" name="Tabela dinâmica36" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Frequencia de abastecimento">
   <location ref="K12:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="19">
@@ -40411,7 +40749,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4005F9F-F1AB-4D06-942F-4D5959D771A0}" name="Tabela dinâmica32" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Frequencia de abastecimento">
   <location ref="F12:G17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
@@ -40494,35 +40832,71 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87BD3EC1-02AB-47FA-B64B-B4175839E2C7}" name="Tabela dinâmica29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Região">
-  <location ref="A19:F25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField dataField="1" showAll="0"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18AB2D07-3F01-4D06-BF2F-56DBBE179856}" name="Não vinculado Região" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE - DASH" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="T35:X42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
-        <item x="3"/>
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
         <item x="2"/>
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="6">
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -40538,12 +40912,38 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -40556,14 +40956,17 @@
     <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="3"/>
+    <field x="20"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -40573,16 +40976,18 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Pessoas" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="CONHECE O APP" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="32">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -40595,27 +41000,71 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D307692-B245-404B-B244-807F3A96D1BD}" name="Tabela dinâmica28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" preserveFormatting="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Veículo" colHeaderCaption="Frequencia de abastecimento">
-  <location ref="A11:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField dataField="1" showAll="0"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBA2F82-752C-4633-BFC5-C8DE9A9C6A76}" name="Conhece app" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE - DASH" colHeaderCaption="Frequência do Abastecimento">
+  <location ref="K35:O38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
         <item x="2"/>
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
+    <pivotField showAll="0">
+      <items count="6">
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -40631,12 +41080,49 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="20"/>
+  </colFields>
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -40646,30 +41132,18 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Pessoas" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="CONHECE O APP" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="33">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -40682,9 +41156,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4F8F379-80FE-4E44-8BE6-116DC1FF1E6E}" name="Principais pontos 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="TABLE MAIN" colHeaderCaption="Frequência do Abastecimento">
-  <location ref="H26:I33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="H26:I28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField dataField="1" showAll="0">
       <items count="3">
@@ -40705,12 +41179,12 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -40801,27 +41275,12 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="2">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -40829,340 +41288,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="clientes" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A9F9A73-B142-4B49-A545-04E2C62785EF}" name="Valor utilizado" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Valor gasto no Abastecimento">
-  <location ref="L11:Q16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="DETALHE" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DDA945B-60D8-4C56-81D6-A22F2A1C30EE}" name="Posto por Região 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A30:E39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="11">
-        <item sd="0" x="5"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="1"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="8"/>
-        <item sd="0" x="2"/>
-        <item x="6"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="3"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item h="1" sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="TABLE MAIN" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -41235,12 +41360,12 @@
   <data>
     <tabular pivotCacheId="1452903899">
       <items count="6">
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="1"/>
         <i x="4" s="1"/>
-        <i x="0" s="1"/>
-        <i x="3" s="1"/>
-        <i x="5" s="1" nd="1"/>
+        <i x="0"/>
+        <i x="3"/>
+        <i x="5" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -41284,31 +41409,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y5" totalsRowShown="0">
   <autoFilter ref="A1:Y5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de conclusão" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nome" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hora da última modificação" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qual sua idade?" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Com qual gênero se identifica?" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Em qual região você reside?" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Qual seu principal meio de locomoção?" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Qual é a frequência com que você abastece seu veículo em um posto de combustível? " dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Considerando sua rotina habitual, quantos quilômetros , aproximadamente, você roda por dia?" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Quanto você gasta em média em cada abastecimento em um posto de combustível?" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Qual dos postos abaixo você costuma utilizar para abastecer seu veículo?" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de conclusão" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nome" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hora da última modificação" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qual sua idade?" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Com qual gênero se identifica?" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Em qual região você reside?" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Qual seu principal meio de locomoção?" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Qual é a frequência com que você abastece seu veículo em um posto de combustível? " dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Considerando sua rotina habitual, quantos quilômetros , aproximadamente, você roda por dia?" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Quanto você gasta em média em cada abastecimento em um posto de combustível?" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Qual dos postos abaixo você costuma utilizar para abastecer seu veículo?" dataDxfId="78"/>
     <tableColumn id="24" xr3:uid="{E621C528-1359-4CFD-B75E-BE19C828E807}" name="Coluna1"/>
     <tableColumn id="25" xr3:uid="{D3480D2C-0851-4D81-BAC1-6E59B1C04CE4}" name="Coluna2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Qual os três principais pontos que você observa ao escolher um posto de gasolina?" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Com que frequência você utiliza o aplicativo dos postos de combustível que frequenta?" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Você conhece o APP Abastece Aí, dos postos Ipiranga ?" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Quais benefícios você espera encontrar no aplicativo Abastece Aí?" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Qual a principal barreira para a utilização de um aplicativo para ganhar benefícios em postos de abastecimento?" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Quais são os principais fatores que o levam a escolher o posto Ipiranga para abastecer seu veículo?" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Descreva sua experiência geral com o aplicativo do posto Ipiranga, incluindo o que você gosta e o que acha que pode ser melhorado." dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Quais são os principais benefícios que você espera obter ao utilizar aplicativos de postos de gasolina?" dataDxfId="38"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? " dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Qual os três principais pontos que você observa ao escolher um posto de gasolina?" dataDxfId="77"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Com que frequência você utiliza o aplicativo dos postos de combustível que frequenta?" dataDxfId="76"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Você conhece o APP Abastece Aí, dos postos Ipiranga ?" dataDxfId="75"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Quais benefícios você espera encontrar no aplicativo Abastece Aí?" dataDxfId="74"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Qual a principal barreira para a utilização de um aplicativo para ganhar benefícios em postos de abastecimento?" dataDxfId="73"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Quais são os principais fatores que o levam a escolher o posto Ipiranga para abastecer seu veículo?" dataDxfId="72"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Descreva sua experiência geral com o aplicativo do posto Ipiranga, incluindo o que você gosta e o que acha que pode ser melhorado." dataDxfId="71"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Quais são os principais benefícios que você espera obter ao utilizar aplicativos de postos de gasolina?" dataDxfId="70"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? " dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -41325,7 +41450,7 @@
     <tableColumn id="5" xr3:uid="{A528C763-2CAC-47AF-9E4A-92AE630029D3}" name="MEIO DE LOCOMOÇÃO"/>
     <tableColumn id="6" xr3:uid="{39E80B3C-B637-45F8-BB0D-056B7F9523C4}" name="FREQUENCIA DE ABASTECIMENTO"/>
     <tableColumn id="7" xr3:uid="{792D1799-FD75-418D-8ABD-E5F1E7129DC1}" name="KM / DIA"/>
-    <tableColumn id="23" xr3:uid="{5965E086-A179-4ADD-B67D-7C36014E9A2C}" name="KM/DIA/CALC" dataDxfId="36">
+    <tableColumn id="23" xr3:uid="{5965E086-A179-4ADD-B67D-7C36014E9A2C}" name="KM/DIA/CALC" dataDxfId="68">
       <calculatedColumnFormula>SUM(Postos[[#This Row],[KM / DIA]]*10)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{9F8BF15D-92BD-4AC1-9D4D-0DE3AEDA3076}" name="VALORES UTILIZADOS NO ABASTECIMENTO"/>
@@ -41349,38 +41474,38 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{837E31A5-727D-479F-9C63-8D6C341CFF70}" name="Table15" displayName="Table15" ref="A1:AC252" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{837E31A5-727D-479F-9C63-8D6C341CFF70}" name="Table15" displayName="Table15" ref="A1:AC252" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:AC252" xr:uid="{837E31A5-727D-479F-9C63-8D6C341CFF70}"/>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{97AFA67A-FBFB-48CA-9C51-68FA6BA94C23}" name="ID" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{F98B2902-B979-4482-BCD8-62840F68B5BE}" name="IDADE" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{AABFD5D7-A50D-4F5B-9FB1-38AEE7EE9448}" name="GÊNERO" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{23EBEC81-DEFC-410C-B79F-8725781B1A94}" name="REGIÃO" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{8AE870FF-A2BA-4A76-858A-7CF9A32BED56}" name="MEIO DE LOCOMOÇÃO" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{44015E1C-17E8-42B9-893B-41365789B9C2}" name="FRAQUENCIA DE ABASTECIMENTO" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{ABEFFCE7-CBAD-4245-87C1-A17FF0DD6FAC}" name="KM/DIA" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{F1E6493A-358B-4CA6-A064-524C0B15469C}" name="GASTO COM COMBUSTIVEL" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{CE01A891-5E1B-4F9F-87DF-A324E684A2B4}" name="POSTO 1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{A0782225-12B8-4A6D-8FD5-DB934460E721}" name="POSTO 2" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{C0ED5F5E-FA5D-4AA6-83AA-5C36C0556122}" name="POSTO 3" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{52D28AA7-3B4F-4119-86A7-A2E25EB68472}" name="POSTO 4" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{B5C53840-4B68-4576-86F8-35E4562F7D2B}" name="POSTO 5" dataDxfId="21"/>
-    <tableColumn id="25" xr3:uid="{BCB9FE73-F3BB-427A-A32C-CF93B4D4F126}" name="POSTO 6" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{948B4E6A-0240-4307-901D-28EEB9EE2ADE}" name="POSTO 7" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{996BBEEC-A1C7-47F5-9AEC-BC32F2721D35}" name="POSTO 8" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{13AB0BDC-FEB1-443A-8D4C-14D7B8CD584C}" name="PRINCIPAIS PONTOS 1" dataDxfId="17"/>
-    <tableColumn id="26" xr3:uid="{FEACDF79-1541-475E-8E42-D04F5F69A9E2}" name="PRINCIPAIS PONTOS 2" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{9E062427-933F-4C90-9EA0-8B93FC3C20A1}" name="FREQUENCIA DE UTILIZAÇÃO APP" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{CB296F77-48C5-4922-9C1B-0BFF3AB18033}" name="CONHECE APP ABASTECE AI?" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{C0B79E3D-2357-41F8-B17C-9AAF5CD38D6D}" name="BENEFÍCIOS DO APP 1" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{B034D964-DF73-418E-91A8-5BA9879251B4}" name="BENEFÍCIOS DO APP 2" dataDxfId="12"/>
-    <tableColumn id="33" xr3:uid="{67675E91-E9CC-4BF4-BF89-36DEB8C64624}" name="BENEFÍCIOS DO APP 3" dataDxfId="11"/>
-    <tableColumn id="32" xr3:uid="{5EC6A938-C76D-4E5E-846E-0D834C8CCDBC}" name="BENEFÍCIOS DO APP 4" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{64437F91-CBA7-45A6-86A1-620DF1B8E454}" name="Qual a principal barreira para a utilização de um aplicativo para ganhar benefícios em postos de abastecimento?" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{6F4F613B-36AD-4E10-8113-A5C23DEDE762}" name="Quais são os principais fatores que o levam a escolher o posto Ipiranga para abastecer seu veículo?" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{E6C633BA-B9EB-4902-873B-1D3EBA4B605E}" name="Descreva sua experiência geral com o aplicativo do posto Ipiranga, incluindo o que você gosta e o que acha que pode ser melhorado." dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{1DACDEFA-3031-44AF-AA67-87C401BA7F9D}" name="Quais são os principais benefícios que você espera obter ao utilizar aplicativos de postos de gasolina?" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{2BB1EB30-F3C3-4175-A6A6-2D6CFA20ED6A}" name="Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? " dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{97AFA67A-FBFB-48CA-9C51-68FA6BA94C23}" name="ID" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{F98B2902-B979-4482-BCD8-62840F68B5BE}" name="IDADE" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{AABFD5D7-A50D-4F5B-9FB1-38AEE7EE9448}" name="GÊNERO" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{23EBEC81-DEFC-410C-B79F-8725781B1A94}" name="REGIÃO" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{8AE870FF-A2BA-4A76-858A-7CF9A32BED56}" name="MEIO DE LOCOMOÇÃO" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{44015E1C-17E8-42B9-893B-41365789B9C2}" name="FRAQUENCIA DE ABASTECIMENTO" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{ABEFFCE7-CBAD-4245-87C1-A17FF0DD6FAC}" name="KM/DIA" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{F1E6493A-358B-4CA6-A064-524C0B15469C}" name="GASTO COM COMBUSTIVEL" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{CE01A891-5E1B-4F9F-87DF-A324E684A2B4}" name="POSTO 1" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{A0782225-12B8-4A6D-8FD5-DB934460E721}" name="POSTO 2" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{C0ED5F5E-FA5D-4AA6-83AA-5C36C0556122}" name="POSTO 3" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{52D28AA7-3B4F-4119-86A7-A2E25EB68472}" name="POSTO 4" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{B5C53840-4B68-4576-86F8-35E4562F7D2B}" name="POSTO 5" dataDxfId="53"/>
+    <tableColumn id="25" xr3:uid="{BCB9FE73-F3BB-427A-A32C-CF93B4D4F126}" name="POSTO 6" dataDxfId="52"/>
+    <tableColumn id="24" xr3:uid="{948B4E6A-0240-4307-901D-28EEB9EE2ADE}" name="POSTO 7" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{996BBEEC-A1C7-47F5-9AEC-BC32F2721D35}" name="POSTO 8" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{13AB0BDC-FEB1-443A-8D4C-14D7B8CD584C}" name="PRINCIPAIS PONTOS 1" dataDxfId="49"/>
+    <tableColumn id="26" xr3:uid="{FEACDF79-1541-475E-8E42-D04F5F69A9E2}" name="PRINCIPAIS PONTOS 2" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{9E062427-933F-4C90-9EA0-8B93FC3C20A1}" name="FREQUENCIA DE UTILIZAÇÃO APP" dataDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{CB296F77-48C5-4922-9C1B-0BFF3AB18033}" name="CONHECE APP ABASTECE AI?" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{C0B79E3D-2357-41F8-B17C-9AAF5CD38D6D}" name="BENEFÍCIOS DO APP 1" dataDxfId="45"/>
+    <tableColumn id="34" xr3:uid="{B034D964-DF73-418E-91A8-5BA9879251B4}" name="BENEFÍCIOS DO APP 2" dataDxfId="44"/>
+    <tableColumn id="33" xr3:uid="{67675E91-E9CC-4BF4-BF89-36DEB8C64624}" name="BENEFÍCIOS DO APP 3" dataDxfId="43"/>
+    <tableColumn id="32" xr3:uid="{5EC6A938-C76D-4E5E-846E-0D834C8CCDBC}" name="BENEFÍCIOS DO APP 4" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{64437F91-CBA7-45A6-86A1-620DF1B8E454}" name="Qual a principal barreira para a utilização de um aplicativo para ganhar benefícios em postos de abastecimento?" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{6F4F613B-36AD-4E10-8113-A5C23DEDE762}" name="Quais são os principais fatores que o levam a escolher o posto Ipiranga para abastecer seu veículo?" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{E6C633BA-B9EB-4902-873B-1D3EBA4B605E}" name="Descreva sua experiência geral com o aplicativo do posto Ipiranga, incluindo o que você gosta e o que acha que pode ser melhorado." dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{1DACDEFA-3031-44AF-AA67-87C401BA7F9D}" name="Quais são os principais benefícios que você espera obter ao utilizar aplicativos de postos de gasolina?" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{2BB1EB30-F3C3-4175-A6A6-2D6CFA20ED6A}" name="Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? " dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -41968,7 +42093,7 @@
   <sheetPr codeName="Planilha9"/>
   <dimension ref="Y31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="81" zoomScaleNormal="81" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -43476,8 +43601,8 @@
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:AC252"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView topLeftCell="Z22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57113,8 +57238,8 @@
   <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57137,23 +57262,23 @@
       </c>
       <c r="B1" s="27" t="str">
         <f>B19</f>
-        <v>Centro-Oeste</v>
-      </c>
-      <c r="C1" s="27" t="str">
+        <v>Norte</v>
+      </c>
+      <c r="C1" s="27">
         <f>C19</f>
-        <v>Nordeste</v>
-      </c>
-      <c r="D1" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27">
         <f>D19</f>
-        <v>Norte</v>
-      </c>
-      <c r="E1" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27">
         <f>E19</f>
-        <v>Sudeste</v>
-      </c>
-      <c r="F1" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="27">
         <f>F19</f>
-        <v>Sul</v>
+        <v>0</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>525</v>
@@ -57186,21 +57311,21 @@
       <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Centro-Oeste","POSTO 2","Ale")</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Nordeste","POSTO 2","Ale")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Nordeste","POSTO 3","Ale")</f>
-        <v>2</v>
-      </c>
-      <c r="D2">
+        <v>#REF!</v>
+      </c>
+      <c r="D2" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Norte","POSTO 2","Ale")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Norte","POSTO 3","Ale")</f>
-        <v>4</v>
-      </c>
-      <c r="E2">
+        <v>#REF!</v>
+      </c>
+      <c r="E2" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Sudeste","POSTO 2","Ale")</f>
-        <v>9</v>
+        <v>#REF!</v>
       </c>
       <c r="F2">
         <f ca="1">SUMIF(A20:A103,A2,F20:F59)</f>
@@ -57211,7 +57336,7 @@
       </c>
       <c r="I2">
         <f>SUMIF(H19:H33,H2,I19:I33)</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="16">
@@ -57235,32 +57360,32 @@
       </c>
       <c r="T2">
         <f ca="1">SUM(B66:F66)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U2" s="39">
         <f ca="1">T2/T8</f>
-        <v>5.3333333333333337E-2</v>
+        <v>6.3333333333333339E-2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Boxxter")</f>
-        <v>9</v>
-      </c>
-      <c r="C3">
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Boxxter")</f>
-        <v>11</v>
+        <v>#REF!</v>
       </c>
       <c r="D3">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Boxxter")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Norte","POSTO 2","Boxxter")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Norte","POSTO 3","Boxxter")</f>
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Boxxter")</f>
-        <v>22</v>
+        <v>#REF!</v>
       </c>
       <c r="F3">
         <f>SUMIF(A21:A60,A3,F21:F60)</f>
@@ -57270,8 +57395,8 @@
         <v>496</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="0">SUMIF(H20:H34,H3,I20:I34)</f>
-        <v>87</v>
+        <f>SUMIF(H19:H33,H3,I19:I33)</f>
+        <v>13</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3">
@@ -57298,43 +57423,43 @@
       </c>
       <c r="T3">
         <f ca="1">SUM(B67:F67)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" s="39">
         <f ca="1">T3/T8</f>
-        <v>0.17</v>
+        <v>0.17333333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Ipiranga")</f>
-        <v>2</v>
-      </c>
-      <c r="C4">
+        <v>#REF!</v>
+      </c>
+      <c r="C4" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Ipiranga")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Nordeste","POSTO 2","Boxxter")</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
       <c r="D4">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Ipiranga")</f>
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Ipiranga")</f>
-        <v>20</v>
-      </c>
-      <c r="F4">
+        <v>#REF!</v>
+      </c>
+      <c r="F4" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sul","POSTO 1","Ipiranga")</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>498</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>SUMIF(H19:H33,H4,I19:I33)</f>
+        <v>4</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="35">
@@ -57362,11 +57487,11 @@
         <v>80</v>
       </c>
       <c r="T4">
-        <f ca="1">SUM(B68:F68)</f>
+        <f>SUM(B68:F68)</f>
         <v>29</v>
       </c>
       <c r="U4" s="39">
-        <f ca="1">T4/T8</f>
+        <f>T4/T8</f>
         <v>9.6666666666666665E-2</v>
       </c>
     </row>
@@ -57374,32 +57499,32 @@
       <c r="A5" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Petrobras")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Centro-Oeste","POSTO 3","Petrobras")</f>
-        <v>5</v>
-      </c>
-      <c r="C5">
+        <v>#REF!</v>
+      </c>
+      <c r="C5" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Petrobras")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Nordeste","POSTO 3","Petrobras")</f>
-        <v>5</v>
+        <v>#REF!</v>
       </c>
       <c r="D5">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Petrobras")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Norte","POSTO 3","Petrobras")</f>
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Petrobras")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Sudeste","POSTO 3","Petrobras")</f>
-        <v>10</v>
-      </c>
-      <c r="F5">
+        <v>#REF!</v>
+      </c>
+      <c r="F5" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sul","POSTO 1","Petrobras")</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>499</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUMIF(H19:H33,H5,I19:I33)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="35" t="s">
@@ -57426,44 +57551,44 @@
         <v>123</v>
       </c>
       <c r="T5">
-        <f ca="1">SUM(B69:F69)</f>
-        <v>30</v>
+        <f>SUM(B69:F69)</f>
+        <v>31</v>
       </c>
       <c r="U5" s="39">
-        <f ca="1">T5/T8</f>
-        <v>0.1</v>
+        <f>T5/T8</f>
+        <v>0.10333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Rede Graal")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Centro-Oeste","POSTO 3","Rede Graal")</f>
-        <v>2</v>
-      </c>
-      <c r="C6">
+        <v>#REF!</v>
+      </c>
+      <c r="C6" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Rede Graal")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Nordeste","POSTO 3","Rede Graal")</f>
-        <v>2</v>
-      </c>
-      <c r="D6">
+        <v>#REF!</v>
+      </c>
+      <c r="D6" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Rede Graal")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Norte","POSTO 3","Rede Graal")</f>
-        <v>1</v>
-      </c>
-      <c r="E6">
+        <v>#REF!</v>
+      </c>
+      <c r="E6" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Rede Graal")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Sudeste","POSTO 3","Rede Graal")</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F9" ca="1" si="1">SUMIF(A24:A77,A6,F24:F77)</f>
+        <f t="shared" ref="F6:F9" ca="1" si="0">SUMIF(A24:A77,A6,F24:F77)</f>
         <v>0</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>502</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUMIF(H19:H33,H6,I19:I33)</f>
+        <v>2</v>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="33"/>
@@ -57472,43 +57597,43 @@
       </c>
       <c r="T6">
         <f ca="1">SUM(B73:F73)</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="U6" s="39">
         <f ca="1">T6/T8</f>
-        <v>0.40666666666666668</v>
+        <v>0.39666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Setee")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Centro-Oeste","POSTO 2","Setee")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Centro-Oeste","POSTO 3","Setee")</f>
-        <v>6</v>
-      </c>
-      <c r="C7">
+        <v>#REF!</v>
+      </c>
+      <c r="C7" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Setee")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Nordeste","POSTO 3","Setee")</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Setee")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Norte","POSTO 2","Setee")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Norte","POSTO 3","Setee")</f>
-        <v>4</v>
-      </c>
-      <c r="E7">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Setee")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Sudeste","POSTO 2","Setee")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Sudeste","POSTO 3","Setee")</f>
-        <v>13</v>
+        <v>#REF!</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>500</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>SUMIF(H19:H33,H7,I19:I33)</f>
+        <v>3</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="16"/>
@@ -57528,32 +57653,32 @@
       <c r="A8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Setta")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Centro-Oeste","POSTO 2","Setta")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Centro-Oeste","POSTO 3","Setta")</f>
-        <v>3</v>
-      </c>
-      <c r="C8">
+        <v>#REF!</v>
+      </c>
+      <c r="C8" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Setta")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Nordeste","POSTO 2","Setta")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Nordeste","POSTO 3","Setta")</f>
-        <v>5</v>
-      </c>
-      <c r="D8">
+        <v>#REF!</v>
+      </c>
+      <c r="D8" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Setta")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Nordeste","POSTO 2","Setta")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Nordeste","POSTO 3","Setta")</f>
-        <v>5</v>
-      </c>
-      <c r="E8">
+        <v>#REF!</v>
+      </c>
+      <c r="E8" t="e">
         <f>GETPIVOTDATA("ID",$A$30,"REGIÃO","Sudeste","POSTO 2","Shell")+GETPIVOTDATA("ID",$A$42,"REGIÃO","Sudeste","POSTO 3","Setta")</f>
-        <v>9</v>
+        <v>#REF!</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>501</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <f>SUMIF(H19:H33,H8,I19:I33)</f>
+        <v>17</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="16"/>
@@ -57565,32 +57690,32 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="40" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Centro-Oeste","POSTO 1","Shell")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Centro-Oeste","POSTO 2","Shell")</f>
-        <v>22</v>
-      </c>
-      <c r="C9">
+        <v>#REF!</v>
+      </c>
+      <c r="C9" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Nordeste","POSTO 1","Shell")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Nordeste","POSTO 2","Shell")</f>
-        <v>19</v>
+        <v>#REF!</v>
       </c>
       <c r="D9">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Norte","POSTO 1","Shell")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Norte","POSTO 2","Shell")</f>
         <v>23</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="e">
         <f>GETPIVOTDATA("REGIÃO",$A$18,"REGIÃO","Sudeste","POSTO 1","Shell")+GETPIVOTDATA("ID",$A$30,"REGIÃO","Sudeste","POSTO 2","Shell")</f>
-        <v>58</v>
+        <v>#REF!</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>503</v>
       </c>
       <c r="I9">
-        <f>SUMIF(H26:H39,H9,I26:I39)</f>
-        <v>1</v>
+        <f>SUMIF(H19:H33,H9,I19:I33)</f>
+        <v>0</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="16"/>
@@ -57633,27 +57758,24 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
         <v>101</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I12">
-        <v>378</v>
+      <c r="I12" s="45">
+        <v>68</v>
       </c>
       <c r="J12">
         <f>SUMIF(H12:H15,H12,I12:I15)*10</f>
-        <v>3780</v>
+        <v>680</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>514</v>
@@ -57676,218 +57798,210 @@
       <c r="S12" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="T12">
-        <v>65</v>
+      <c r="T12" s="45">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>65</v>
+      <c r="B13" s="45">
+        <v>4</v>
+      </c>
+      <c r="C13" s="45">
+        <v>4</v>
+      </c>
+      <c r="D13" s="45">
+        <v>6</v>
+      </c>
+      <c r="E13" s="45">
+        <v>14</v>
       </c>
       <c r="G13">
         <f>GETPIVOTDATA("ID",$A$11,"MEIO DE LOCOMOÇÃO","Caminhão")</f>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I13">
-        <v>435</v>
+      <c r="I13" s="45">
+        <v>73</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J15" si="2">SUMIF(H13:H16,H13,I13:I16)*10</f>
-        <v>4350</v>
+        <f t="shared" ref="J13:J15" si="1">SUMIF(H13:H16,H13,I13:I16)*10</f>
+        <v>730</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M13">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
-      <c r="O13">
+      <c r="M13" s="45">
+        <v>4</v>
+      </c>
+      <c r="N13" s="45">
+        <v>4</v>
+      </c>
+      <c r="O13" s="45">
+        <v>2</v>
+      </c>
+      <c r="P13" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="45">
         <v>14</v>
-      </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13">
-        <v>65</v>
       </c>
       <c r="S13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T13">
-        <v>81</v>
+      <c r="T13" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="45">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>81</v>
+      <c r="D14" s="45">
+        <v>5</v>
+      </c>
+      <c r="E14" s="45">
+        <v>12</v>
       </c>
       <c r="G14">
         <f>GETPIVOTDATA("ID",$A$11,"MEIO DE LOCOMOÇÃO","Carro")</f>
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I14">
-        <v>258</v>
+      <c r="I14" s="45">
+        <v>28</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>2580</v>
+        <f t="shared" si="1"/>
+        <v>280</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M14">
-        <v>11</v>
-      </c>
-      <c r="N14">
-        <v>27</v>
-      </c>
-      <c r="O14">
-        <v>30</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <v>81</v>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45">
+        <v>5</v>
+      </c>
+      <c r="O14" s="45">
+        <v>3</v>
+      </c>
+      <c r="P14" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>12</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="T14">
-        <v>42</v>
+      <c r="T14" s="45">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>42</v>
+      <c r="B15" s="45">
+        <v>1</v>
+      </c>
+      <c r="C15" s="45">
+        <v>3</v>
+      </c>
+      <c r="D15" s="45">
+        <v>1</v>
+      </c>
+      <c r="E15" s="45">
+        <v>5</v>
       </c>
       <c r="G15">
         <f>GETPIVOTDATA("ID",$A$11,"MEIO DE LOCOMOÇÃO","Motocicleta")</f>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I15">
-        <v>324</v>
+      <c r="I15" s="45">
+        <v>44</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>3240</v>
+        <f t="shared" si="1"/>
+        <v>440</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="M15">
-        <v>12</v>
-      </c>
-      <c r="N15">
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <v>9</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="Q15">
-        <v>42</v>
+      <c r="M15" s="45">
+        <v>1</v>
+      </c>
+      <c r="N15" s="45">
+        <v>2</v>
+      </c>
+      <c r="O15" s="45">
+        <v>1</v>
+      </c>
+      <c r="P15" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="45">
+        <v>5</v>
       </c>
       <c r="S15" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="T15">
-        <v>63</v>
+      <c r="T15" s="45">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B16">
-        <v>19</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="45">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>63</v>
+      <c r="C16" s="45">
+        <v>3</v>
+      </c>
+      <c r="D16" s="45">
+        <v>6</v>
+      </c>
+      <c r="E16" s="45">
+        <v>10</v>
       </c>
       <c r="G16">
         <f>GETPIVOTDATA("ID",$A$11,"MEIO DE LOCOMOÇÃO","Transporte público")</f>
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>11</v>
-      </c>
-      <c r="P16">
-        <v>15</v>
-      </c>
-      <c r="Q16">
-        <v>63</v>
+      <c r="M16" s="45">
+        <v>5</v>
+      </c>
+      <c r="N16" s="45">
+        <v>2</v>
+      </c>
+      <c r="O16" s="45">
+        <v>1</v>
+      </c>
+      <c r="P16" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -57912,172 +58026,86 @@
         <v>514</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="I19">
-        <v>17</v>
+      <c r="I19" s="45">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="45">
         <v>3</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="I20">
-        <v>84</v>
+      <c r="I20" s="45">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="45">
         <v>6</v>
-      </c>
-      <c r="E21">
-        <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="I21">
-        <v>27</v>
+      <c r="I21" s="45">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="45">
+        <v>3</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="I22" s="45">
         <v>2</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="45">
         <v>7</v>
       </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
+      <c r="H23" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="I23" s="45">
         <v>2</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B24" s="45">
+        <v>22</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="I24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="H25" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="I25">
-        <v>104</v>
+      <c r="I24" s="45">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
       <c r="H26" s="15" t="s">
         <v>523</v>
       </c>
@@ -58086,48 +58114,19 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
       <c r="H27" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="I27">
-        <v>5</v>
+      <c r="I27" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>56</v>
-      </c>
       <c r="H28" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H29" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="I28" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -58137,90 +58136,51 @@
       <c r="B30" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>514</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D32">
+      <c r="B32" s="45">
         <v>1</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D33">
+      <c r="B33" s="45">
         <v>2</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="45">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="F34"/>
       <c r="G34" s="30"/>
       <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B35" s="45">
+        <v>3</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>527</v>
@@ -58244,25 +58204,16 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="B36" s="45">
+        <v>1</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I36">
-        <v>74</v>
+      <c r="I36" s="45">
+        <v>11</v>
       </c>
       <c r="J36" s="30"/>
       <c r="K36" s="15" t="s">
@@ -58307,63 +58258,54 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37">
+        <v>81</v>
+      </c>
+      <c r="B37" s="45">
         <v>1</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I37">
-        <v>112</v>
+      <c r="I37" s="45">
+        <v>15</v>
       </c>
       <c r="J37" s="30"/>
       <c r="K37" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>12</v>
-      </c>
-      <c r="N37">
-        <v>12</v>
-      </c>
-      <c r="O37">
-        <v>42</v>
-      </c>
-      <c r="Q37">
+        <v>129</v>
+      </c>
+      <c r="L37" s="45">
+        <v>15</v>
+      </c>
+      <c r="M37" s="45">
+        <v>11</v>
+      </c>
+      <c r="N37" s="45">
+        <v>15</v>
+      </c>
+      <c r="O37" s="45">
+        <v>41</v>
+      </c>
+      <c r="Q37" t="e">
         <f>GETPIVOTDATA("ID",$K$35,"REGIÃO","Centro-Oeste")</f>
-        <v>42</v>
+        <v>#REF!</v>
       </c>
       <c r="R37">
         <f>IFERROR(Q37,0)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T37" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="45">
         <v>18</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="45">
         <v>12</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="45">
         <v>12</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="45">
         <v>42</v>
       </c>
       <c r="Y37">
@@ -58376,64 +58318,49 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
       <c r="H38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I38">
-        <v>65</v>
+      <c r="I38" s="45">
+        <v>15</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38">
-        <v>22</v>
-      </c>
-      <c r="M38">
-        <v>6</v>
-      </c>
-      <c r="N38">
-        <v>14</v>
-      </c>
-      <c r="O38">
-        <v>42</v>
-      </c>
-      <c r="Q38">
+        <v>101</v>
+      </c>
+      <c r="L38" s="45">
+        <v>15</v>
+      </c>
+      <c r="M38" s="45">
+        <v>11</v>
+      </c>
+      <c r="N38" s="45">
+        <v>15</v>
+      </c>
+      <c r="O38" s="45">
+        <v>41</v>
+      </c>
+      <c r="Q38" t="e">
         <f>GETPIVOTDATA("ID",$K$35,"REGIÃO","Nordeste")</f>
-        <v>42</v>
+        <v>#REF!</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:R41" si="3">IFERROR(Q38,0)</f>
-        <v>42</v>
+        <f t="shared" ref="R38:R41" si="2">IFERROR(Q38,0)</f>
+        <v>0</v>
       </c>
       <c r="T38" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="45">
         <v>22</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="45">
         <v>6</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="45">
         <v>14</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="45">
         <v>42</v>
       </c>
       <c r="Y38">
@@ -58441,60 +58368,33 @@
         <v>42</v>
       </c>
       <c r="Z38">
-        <f t="shared" ref="Z38:Z41" si="4">IFERROR(Y38,"0")</f>
+        <f t="shared" ref="Z38:Z41" si="3">IFERROR(Y38,"0")</f>
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="J39" s="30"/>
-      <c r="K39" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="L39">
-        <v>15</v>
-      </c>
-      <c r="M39">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <v>15</v>
-      </c>
-      <c r="O39">
-        <v>41</v>
-      </c>
       <c r="Q39">
         <f>GETPIVOTDATA("ID",$K$35,"REGIÃO","Norte")</f>
         <v>41</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="T39" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="45">
         <v>15</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="45">
         <v>11</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="45">
         <v>15</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="45">
         <v>41</v>
       </c>
       <c r="Y39">
@@ -58502,7 +58402,7 @@
         <v>41</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -58514,42 +58414,27 @@
         <v>528</v>
       </c>
       <c r="J40" s="30"/>
-      <c r="K40" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40">
-        <v>29</v>
-      </c>
-      <c r="M40">
-        <v>44</v>
-      </c>
-      <c r="N40">
-        <v>50</v>
-      </c>
-      <c r="O40">
-        <v>123</v>
-      </c>
-      <c r="Q40">
+      <c r="Q40" t="e">
         <f>GETPIVOTDATA("ID",$K$35,"REGIÃO","Sudeste")</f>
-        <v>123</v>
+        <v>#REF!</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
-        <v>123</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="45">
         <v>29</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="45">
         <v>44</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="45">
         <v>50</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="45">
         <v>123</v>
       </c>
       <c r="Y40">
@@ -58557,7 +58442,7 @@
         <v>123</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
     </row>
@@ -58565,40 +58450,29 @@
       <c r="H41" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I41">
-        <v>47</v>
+      <c r="I41" s="45">
+        <v>6</v>
       </c>
       <c r="J41" s="30"/>
-      <c r="K41" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="O41">
-        <v>3</v>
-      </c>
-      <c r="Q41">
+      <c r="Q41" t="e">
         <f>GETPIVOTDATA("ID",$K$35,"REGIÃO","Sul")</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T41" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="V41">
+      <c r="U41" s="45"/>
+      <c r="V41" s="45">
         <v>1</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="45">
         <v>2</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="45">
         <v>3</v>
       </c>
       <c r="Y41">
@@ -58606,7 +58480,7 @@
         <v>3</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -58620,38 +58494,23 @@
       <c r="H42" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I42">
-        <v>57</v>
+      <c r="I42" s="45">
+        <v>9</v>
       </c>
       <c r="J42" s="30"/>
-      <c r="K42" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="L42">
-        <v>84</v>
-      </c>
-      <c r="M42">
-        <v>74</v>
-      </c>
-      <c r="N42">
-        <v>93</v>
-      </c>
-      <c r="O42">
-        <v>251</v>
-      </c>
       <c r="T42" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="45">
         <v>84</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="45">
         <v>74</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="45">
         <v>93</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="45">
         <v>251</v>
       </c>
     </row>
@@ -58660,39 +58519,30 @@
         <v>514</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
         <v>129</v>
-      </c>
-      <c r="E43" t="s">
-        <v>26</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I43">
-        <v>75</v>
+      <c r="I43" s="45">
+        <v>12</v>
       </c>
       <c r="J43" s="30"/>
       <c r="L43">
         <f>GETPIVOTDATA("ID",$K$35,"CONHECE APP ABASTECE AI?","Conheço e sempre utilizo")</f>
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="M43">
         <f>GETPIVOTDATA("ID",$K$35,"CONHECE APP ABASTECE AI?","Conheço mas não utilizo")</f>
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="N43">
         <f>GETPIVOTDATA("ID",$K$35,"CONHECE APP ABASTECE AI?","Não conheço")</f>
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="O43">
         <f>GETPIVOTDATA("ID",$K$35)</f>
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="U43">
         <f>GETPIVOTDATA("ID",$T$35,"CONHECE APP ABASTECE AI?","Conheço e sempre utilizo")</f>
@@ -58713,16 +58563,16 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44">
+        <v>122</v>
+      </c>
+      <c r="B44" s="45">
         <v>1</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I44">
-        <v>72</v>
+      <c r="I44" s="45">
+        <v>14</v>
       </c>
       <c r="J44" s="30"/>
       <c r="K44" s="16" t="s">
@@ -58730,19 +58580,19 @@
       </c>
       <c r="L44" s="39">
         <f>L43/O43</f>
-        <v>0.33466135458167329</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="M44" s="39">
         <f>M43/O43</f>
-        <v>0.29482071713147412</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="N44" s="39">
         <f>N43/O43</f>
-        <v>0.37051792828685259</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="O44">
         <f>O43</f>
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="T44" s="16" t="s">
         <v>101</v>
@@ -58766,13 +58616,10 @@
     </row>
     <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="B45" s="45">
+        <v>3</v>
       </c>
       <c r="J45" s="30"/>
       <c r="K45" s="16" t="s">
@@ -58780,19 +58627,19 @@
       </c>
       <c r="L45" s="39">
         <f>IFERROR(L44,"0%")</f>
-        <v>0.33466135458167329</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="M45" s="39">
-        <f t="shared" ref="M45:N45" si="5">IFERROR(M44,"0%")</f>
-        <v>0.29482071713147412</v>
+        <f t="shared" ref="M45:N45" si="4">IFERROR(M44,"0%")</f>
+        <v>0.26829268292682928</v>
       </c>
       <c r="N45" s="39">
-        <f t="shared" si="5"/>
-        <v>0.37051792828685259</v>
+        <f t="shared" si="4"/>
+        <v>0.36585365853658536</v>
       </c>
       <c r="O45">
         <f>IFERROR(O44,"0")</f>
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="T45" s="16" t="s">
         <v>539</v>
@@ -58802,11 +58649,11 @@
         <v>0.33466135458167329</v>
       </c>
       <c r="V45" s="39">
-        <f t="shared" ref="V45:W45" si="6">IFERROR(V44,"0%")</f>
+        <f t="shared" ref="V45:W45" si="5">IFERROR(V44,"0%")</f>
         <v>0.29482071713147412</v>
       </c>
       <c r="W45" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.37051792828685259</v>
       </c>
       <c r="X45">
@@ -58816,29 +58663,23 @@
     </row>
     <row r="46" spans="1:26" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B46" s="45">
+        <v>1</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46" s="30"/>
       <c r="H46" s="28"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47">
+        <v>82</v>
+      </c>
+      <c r="B47" s="45">
         <v>1</v>
       </c>
       <c r="H47" s="31" t="s">
@@ -58850,159 +58691,135 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+        <v>126</v>
+      </c>
+      <c r="B48" s="45">
         <v>1</v>
       </c>
       <c r="H48" s="16">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>46</v>
+      <c r="I48" s="45">
+        <v>7</v>
       </c>
       <c r="J48" t="s">
         <v>542</v>
       </c>
       <c r="K48">
         <f>GETPIVOTDATA("ID",$H$47,"Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? ",1)</f>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="L48">
         <f>IFERROR(K48,"")</f>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M48" s="34">
         <f>L48/L53</f>
-        <v>0.18326693227091634</v>
+        <v>0.17073170731707318</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+        <v>127</v>
+      </c>
+      <c r="B49" s="45">
         <v>1</v>
       </c>
       <c r="H49" s="16">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>37</v>
+      <c r="I49" s="45">
+        <v>7</v>
       </c>
       <c r="J49" t="s">
         <v>546</v>
       </c>
       <c r="K49">
         <f>GETPIVOTDATA("ID",$H$47,"Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? ",2)</f>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:L52" si="7">IFERROR(K49,"")</f>
-        <v>37</v>
+        <f t="shared" ref="L49:L52" si="6">IFERROR(K49,"")</f>
+        <v>7</v>
       </c>
       <c r="M49" s="34">
         <f>L49/L53</f>
-        <v>0.14741035856573706</v>
+        <v>0.17073170731707318</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>7</v>
-      </c>
       <c r="H50" s="16">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>49</v>
+      <c r="I50" s="45">
+        <v>7</v>
       </c>
       <c r="J50" t="s">
         <v>543</v>
       </c>
       <c r="K50">
         <f>GETPIVOTDATA("ID",$H$47,"Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? ",3)</f>
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <f t="shared" si="7"/>
-        <v>49</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="M50" s="34">
         <f>L50/L53</f>
-        <v>0.19521912350597609</v>
+        <v>0.17073170731707318</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H51" s="16">
         <v>4</v>
       </c>
-      <c r="I51">
-        <v>58</v>
+      <c r="I51" s="45">
+        <v>8</v>
       </c>
       <c r="J51" t="s">
         <v>545</v>
       </c>
       <c r="K51">
         <f>GETPIVOTDATA("ID",$H$47,"Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? ",4)</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="L51">
-        <f t="shared" si="7"/>
-        <v>58</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="M51" s="34">
         <f>L51/L53</f>
-        <v>0.23107569721115537</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H52" s="16">
         <v>5</v>
       </c>
-      <c r="I52">
-        <v>61</v>
+      <c r="I52" s="45">
+        <v>12</v>
       </c>
       <c r="J52" t="s">
         <v>544</v>
       </c>
       <c r="K52">
         <f>GETPIVOTDATA("ID",$H$47,"Por fim você recomendaria um aplicativo de descontos para abastecimento e serviços em postos de combustível para para amigos e familiares? ",5)</f>
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L52">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="M52" s="34">
         <f>L52/L53</f>
-        <v>0.24302788844621515</v>
+        <v>0.29268292682926828</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L53">
         <f>SUM(L48:L52)</f>
-        <v>251</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -59041,18 +58858,20 @@
         <v>124</v>
       </c>
       <c r="B66" s="16">
-        <v>1</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Centro-Oeste","POSTO 3","Ale")</f>
+        <v>2</v>
       </c>
       <c r="C66">
-        <f ca="1">SUMIF(A77:A160,A66,C77:C158)</f>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Nordeste","POSTO 1","Ale")</f>
         <v>2</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Norte","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Norte","POSTO 3","Ale")</f>
+        <v>3</v>
       </c>
       <c r="E66">
-        <f>SUMIF(A77:A160,A66,E77:E160)</f>
-        <v>9</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Ale")+GETPIVOTDATA("ID",$A$97,"REGIÃO","Sudeste","POSTO 4","Larco")</f>
+        <v>12</v>
       </c>
       <c r="F66">
         <f ca="1">SUMIF(A77:A160,A66,F77:F116)</f>
@@ -59064,21 +58883,22 @@
         <v>122</v>
       </c>
       <c r="B67" s="16">
-        <f t="shared" ref="B67:B70" si="8">SUMIF(A78:A161,A67,B78:B161)</f>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Boxxter")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Centro-Oeste","POSTO 3","Boxxter")</f>
         <v>9</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Nordeste","POSTO 1","Boxxter")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Nordeste","POSTO 3","Boxxter")</f>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E70" si="9">SUMIF(A78:A161,A67,E78:E161)</f>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Boxxter")</f>
         <v>22</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F73" ca="1" si="10">SUMIF(A78:A161,A67,F78:F117)</f>
+        <f t="shared" ref="F67:F73" ca="1" si="7">SUMIF(A78:A161,A67,F78:F117)</f>
         <v>0</v>
       </c>
     </row>
@@ -59087,21 +58907,22 @@
         <v>80</v>
       </c>
       <c r="B68" s="16">
-        <f t="shared" si="8"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Ipiranga")</f>
         <v>2</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Norte","POSTO 1","Ipiranga")</f>
         <v>3</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Ipiranga")</f>
         <v>20</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="10"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sul","POSTO 1","Ipiranga")</f>
         <v>1</v>
       </c>
     </row>
@@ -59110,21 +58931,23 @@
         <v>123</v>
       </c>
       <c r="B69" s="16">
-        <f t="shared" si="8"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Petrobras")</f>
         <v>5</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Nordeste","POSTO 1","Petrobras")+GETPIVOTDATA("ID",$A$97,"REGIÃO","Nordeste","POSTO 4","Petrobras")</f>
+        <v>6</v>
       </c>
       <c r="D69">
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Norte","POSTO 1","Petrobras")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Norte","POSTO 3","Petrobras")</f>
         <v>8</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Petrobras")</f>
         <v>10</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="10"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sul","POSTO 1","Petrobras")</f>
         <v>2</v>
       </c>
     </row>
@@ -59133,21 +58956,23 @@
         <v>82</v>
       </c>
       <c r="B70" s="16">
-        <f t="shared" si="8"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Rede Graal")</f>
         <v>2</v>
       </c>
       <c r="C70">
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Nordeste","POSTO 1","Rede Graal")</f>
         <v>2</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Norte","POSTO 1","Rede Graal")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Nordeste","POSTO 3","Rede Graal")</f>
+        <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Rede Graal")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Sudeste","POSTO 3","Rede Graal")</f>
         <v>2</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -59156,19 +58981,23 @@
         <v>126</v>
       </c>
       <c r="B71" s="16">
-        <v>6</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Setee")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Centro-Oeste","POSTO 3","Setee")</f>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Nordeste","POSTO 1","Rede Graal")</f>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <f>GETPIVOTDATA("ID",$A$87,"REGIÃO","Norte","POSTO 3","Setee")</f>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Setee")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Sudeste","POSTO 3","Setee")</f>
+        <v>3</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -59177,19 +59006,23 @@
         <v>127</v>
       </c>
       <c r="B72" s="16">
-        <v>3</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Setta")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Centro-Oeste","POSTO 3","Setee")</f>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <f>GETPIVOTDATA("ID",$A$97,"REGIÃO","Nordeste","POSTO 4","Setta")</f>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <f>GETPIVOTDATA("ID",$A$87,"REGIÃO","Norte","POSTO 3","Setta")+GETPIVOTDATA("ID",$A$97,"REGIÃO","Norte","POSTO 4","Setta")</f>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>9</v>
+        <f>GETPIVOTDATA("ID",$A$87,"REGIÃO","Sudeste","POSTO 3","Setta")+GETPIVOTDATA("ID",$A$97,"REGIÃO","Sudeste","POSTO 4","Setta")</f>
+        <v>8</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -59198,19 +59031,22 @@
         <v>81</v>
       </c>
       <c r="B73" s="16">
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Centro-Oeste","POSTO 1","Shell")+GETPIVOTDATA("ID",$A$87,"REGIÃO","Centro-Oeste","POSTO 3","Setta")</f>
         <v>22</v>
       </c>
       <c r="C73">
         <v>19</v>
       </c>
       <c r="D73">
-        <v>23</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Norte","POSTO 1","Shell")</f>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>58</v>
+        <f>GETPIVOTDATA("GÊNERO",$A$75,"REGIÃO","Sudeste","POSTO 1","Shell")</f>
+        <v>56</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -59246,53 +59082,55 @@
       <c r="A77" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="45">
         <v>1</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="45">
         <v>2</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="45">
         <v>3</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="45">
         <v>9</v>
       </c>
+      <c r="F77" s="45"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="45">
         <v>9</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="45">
         <v>11</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="45">
         <v>6</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="45">
         <v>22</v>
       </c>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="45">
         <v>2</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="45">
         <v>3</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="45">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="45">
         <v>20</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="45">
         <v>1</v>
       </c>
     </row>
@@ -59300,84 +59138,97 @@
       <c r="A80" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="45">
         <v>5</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="45">
         <v>5</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="45">
         <v>7</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="45">
         <v>10</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="45">
         <v>2</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="45">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="D81" s="45"/>
+      <c r="E81" s="45">
         <v>1</v>
       </c>
+      <c r="F81" s="45"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C82">
+      <c r="B82" s="45"/>
+      <c r="C82" s="45">
         <v>1</v>
       </c>
-      <c r="E82">
+      <c r="D82" s="45"/>
+      <c r="E82" s="45">
         <v>3</v>
       </c>
+      <c r="F82" s="45"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="45">
         <v>1</v>
       </c>
-      <c r="E83">
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45">
         <v>2</v>
       </c>
+      <c r="F83" s="45"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="45">
         <v>1</v>
       </c>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="45">
         <v>21</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="45">
         <v>18</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="45">
         <v>22</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="45">
         <v>56</v>
       </c>
+      <c r="F85" s="45"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>523</v>
       </c>
@@ -59385,7 +59236,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>514</v>
       </c>
@@ -59402,89 +59253,100 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="45">
         <v>1</v>
       </c>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C90">
+      <c r="B90" s="45"/>
+      <c r="C90" s="45">
         <v>1</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="45">
         <v>1</v>
       </c>
+      <c r="E90" s="45"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="45">
         <v>2</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="45">
         <v>2</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="45">
         <v>3</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D92">
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45">
         <v>1</v>
       </c>
+      <c r="E92" s="45"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D93">
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45">
         <v>1</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="45">
         <v>1</v>
       </c>
-      <c r="D94">
+      <c r="C94" s="45"/>
+      <c r="D94" s="45">
         <v>1</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="45">
         <v>1</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="45">
         <v>1</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="45">
         <v>1</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="45">
         <v>7</v>
       </c>
     </row>
@@ -59517,10 +59379,12 @@
       <c r="A99" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="45">
         <v>2</v>
       </c>
-      <c r="E99">
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45">
         <v>3</v>
       </c>
     </row>
@@ -59528,40 +59392,49 @@
       <c r="A100" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C100">
+      <c r="B100" s="45"/>
+      <c r="C100" s="45">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="45">
         <v>1</v>
       </c>
+      <c r="E100" s="45"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D101">
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45">
         <v>1</v>
       </c>
+      <c r="E101" s="45"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D102">
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45">
         <v>1</v>
       </c>
+      <c r="E102" s="45"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C103">
+      <c r="B103" s="45"/>
+      <c r="C103" s="45">
         <v>1</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="45">
         <v>1</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="45">
         <v>1</v>
       </c>
     </row>
@@ -59583,7 +59456,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
